--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_full.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2041 +417,2772 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>34948</v>
+        <v>31047</v>
       </c>
       <c r="B2">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="C2">
-        <v>2.599251523277246</v>
+        <v>2.833670241322217</v>
       </c>
       <c r="D2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E2">
-        <v>2.692538626079632</v>
+        <v>2.864936526865769</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35040</v>
+        <v>31137</v>
       </c>
       <c r="B3">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="C3">
-        <v>2.234710814035812</v>
+        <v>6.188717057273996</v>
       </c>
       <c r="D3">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="E3">
-        <v>1.985340189802254</v>
+        <v>7.324134577874641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35131</v>
+        <v>31228</v>
       </c>
       <c r="B4">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C4">
-        <v>-0.3647509200618404</v>
+        <v>1.274495535013775</v>
       </c>
       <c r="D4">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E4">
-        <v>-0.6042249764723895</v>
+        <v>0.6162543489843353</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>35221</v>
+        <v>31320</v>
       </c>
       <c r="B5">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C5">
-        <v>-0.6457119968438452</v>
+        <v>1.95303319268807</v>
       </c>
       <c r="D5">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E5">
-        <v>-1.052124604989768</v>
+        <v>1.085074655435037</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>35313</v>
+        <v>31412</v>
       </c>
       <c r="B6">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C6">
-        <v>1.246728603552372</v>
+        <v>2.740628897120945</v>
       </c>
       <c r="D6">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E6">
-        <v>2.279724827447582</v>
+        <v>4.678955215093872</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>35403</v>
+        <v>31502</v>
       </c>
       <c r="B7">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="C7">
-        <v>1.595002781738275</v>
+        <v>3.790326852935189</v>
       </c>
       <c r="D7">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="E7">
-        <v>4.527833749234489</v>
+        <v>3.875245003711592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>35493</v>
+        <v>31593</v>
       </c>
       <c r="B8">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C8">
-        <v>1.839489167234531</v>
+        <v>0.7987811539740708</v>
       </c>
       <c r="D8">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E8">
-        <v>1.654128599775961</v>
+        <v>0.07643019850551713</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>35586</v>
+        <v>31685</v>
       </c>
       <c r="B9">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C9">
-        <v>1.637407286847581</v>
+        <v>1.876334074204866</v>
       </c>
       <c r="D9">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E9">
-        <v>1.040154639513524</v>
+        <v>1.408791240230167</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>35683</v>
+        <v>31777</v>
       </c>
       <c r="B10">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C10">
-        <v>2.358868559590288</v>
+        <v>2.269459987912947</v>
       </c>
       <c r="D10">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E10">
-        <v>2.734117574261696</v>
+        <v>3.802877396620263</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>35768</v>
+        <v>31867</v>
       </c>
       <c r="B11">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="C11">
-        <v>2.499560583078497</v>
+        <v>3.60561184624264</v>
       </c>
       <c r="D11">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="E11">
-        <v>3.60450672427064</v>
+        <v>3.497588251223394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>35881</v>
+        <v>31958</v>
       </c>
       <c r="B12">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C12">
-        <v>2.041541394678714</v>
+        <v>-2.275857798620984</v>
       </c>
       <c r="D12">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E12">
-        <v>1.985784343186503</v>
+        <v>-3.016613995130724</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35950</v>
+        <v>32050</v>
       </c>
       <c r="B13">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C13">
-        <v>2.74356913534719</v>
+        <v>0.4174932330959891</v>
       </c>
       <c r="D13">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E13">
-        <v>2.539664199680325</v>
+        <v>0.05689533670296676</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>36047</v>
+        <v>32142</v>
       </c>
       <c r="B14">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C14">
-        <v>2.897382889029121</v>
+        <v>1.253514454810789</v>
       </c>
       <c r="D14">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E14">
-        <v>2.956156864099446</v>
+        <v>5.852248234644364</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>36132</v>
+        <v>32233</v>
       </c>
       <c r="B15">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="C15">
-        <v>2.812603855740181</v>
+        <v>5.051662792493028</v>
       </c>
       <c r="D15">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="E15">
-        <v>1.930816112722122</v>
+        <v>4.66077938454339</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36223</v>
+        <v>32324</v>
       </c>
       <c r="B16">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C16">
-        <v>0.7909843765922187</v>
+        <v>1.704500121876951</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E16">
-        <v>1.019061307944913</v>
+        <v>1.379850795239923</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36319</v>
+        <v>32416</v>
       </c>
       <c r="B17">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C17">
-        <v>0.7888597985548307</v>
+        <v>2.92174378678367</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E17">
-        <v>0.5987699589588669</v>
+        <v>2.203477784686947</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36412</v>
+        <v>32508</v>
       </c>
       <c r="B18">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C18">
-        <v>0.6691292373031121</v>
+        <v>3.509161092519553</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E18">
-        <v>0.9436343345945453</v>
+        <v>5.871435380902312</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>36501</v>
+        <v>32598</v>
       </c>
       <c r="B19">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C19">
-        <v>1.188004848513446</v>
+        <v>4.860075657995888</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="E19">
-        <v>1.735396560363034</v>
+        <v>4.677208307084246</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>36587</v>
+        <v>32689</v>
       </c>
       <c r="B20">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C20">
-        <v>2.946612544942728</v>
+        <v>4.674707056384286</v>
       </c>
       <c r="D20">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E20">
-        <v>3.150910407644503</v>
+        <v>4.526405235077502</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>36676</v>
+        <v>32781</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C21">
-        <v>2.664771795503063</v>
+        <v>3.820668451758857</v>
       </c>
       <c r="D21">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E21">
-        <v>2.764032264755434</v>
+        <v>2.829670918543781</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>36767</v>
+        <v>32873</v>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C22">
-        <v>3.374117361041096</v>
+        <v>3.898460078540933</v>
       </c>
       <c r="D22">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E22">
-        <v>3.944132347760299</v>
+        <v>2.713537241942166</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>36858</v>
+        <v>32963</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="C23">
-        <v>3.277038745546235</v>
+        <v>4.09032179327582</v>
       </c>
       <c r="D23">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E23">
-        <v>3.38079189171907</v>
+        <v>4.214483821280934</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>36951</v>
+        <v>33054</v>
       </c>
       <c r="B24">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C24">
-        <v>1.20403170522827</v>
+        <v>6.08517480942079</v>
       </c>
       <c r="D24">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E24">
-        <v>0.9795934166991094</v>
+        <v>6.655798235769961</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>37034</v>
+        <v>33146</v>
       </c>
       <c r="B25">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C25">
-        <v>1.400218588884683</v>
+        <v>4.914967634588563</v>
       </c>
       <c r="D25">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E25">
-        <v>1.160631144748159</v>
+        <v>5.013088184092429</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>37126</v>
+        <v>33238</v>
       </c>
       <c r="B26">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C26">
-        <v>0.9833953941988716</v>
+        <v>5.356103277865332</v>
       </c>
       <c r="D26">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E26">
-        <v>0.6848703993040717</v>
+        <v>5.503965428372259</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>37222</v>
+        <v>33328</v>
       </c>
       <c r="B27">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C27">
-        <v>0.7513248531724415</v>
+        <v>7.575690443668526</v>
       </c>
       <c r="D27">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E27">
-        <v>-0.3560575271134625</v>
+        <v>7.999981608189999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>37314</v>
+        <v>33419</v>
       </c>
       <c r="B28">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C28">
-        <v>-0.7875891621750397</v>
+        <v>8.961416689426937</v>
       </c>
       <c r="D28">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E28">
-        <v>-0.8402017816679708</v>
+        <v>9.375632354513574</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>37399</v>
+        <v>33511</v>
       </c>
       <c r="B29">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C29">
-        <v>-0.1569753836008769</v>
+        <v>7.763468033210641</v>
       </c>
       <c r="D29">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E29">
-        <v>-0.1685209052814995</v>
+        <v>7.759030451644988</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>37490</v>
+        <v>33603</v>
       </c>
       <c r="B30">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C30">
-        <v>0.3668466771991952</v>
+        <v>5.955905607167122</v>
       </c>
       <c r="D30">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E30">
-        <v>1.114594687526949</v>
+        <v>0.8135327385245139</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>37581</v>
+        <v>33694</v>
       </c>
       <c r="B31">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="C31">
-        <v>0.2537741062064169</v>
+        <v>0.9663066580797741</v>
       </c>
       <c r="D31">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E31">
-        <v>0.8558213301539386</v>
+        <v>0.5412852185804784</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>37678</v>
+        <v>33785</v>
       </c>
       <c r="B32">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C32">
-        <v>0.5101205247761031</v>
+        <v>3.692571671353462</v>
       </c>
       <c r="D32">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E32">
-        <v>0.5492364751862988</v>
+        <v>4.510931229133397</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>37756</v>
+        <v>33877</v>
       </c>
       <c r="B33">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C33">
-        <v>-0.2549350829689212</v>
+        <v>2.452743971679849</v>
       </c>
       <c r="D33">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E33">
-        <v>-0.5172637947413516</v>
+        <v>2.46453066391692</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>37847</v>
+        <v>33969</v>
       </c>
       <c r="B34">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C34">
-        <v>-0.3080225166850026</v>
+        <v>1.850401149566561</v>
       </c>
       <c r="D34">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E34">
-        <v>-0.5823337479265223</v>
+        <v>-0.3974186896141263</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>37938</v>
+        <v>34059</v>
       </c>
       <c r="B35">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="C35">
-        <v>-0.1535080579381121</v>
+        <v>-0.5482457784371397</v>
       </c>
       <c r="D35">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="E35">
-        <v>0.1609991203583183</v>
+        <v>-0.5756163407700243</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>38029</v>
+        <v>34150</v>
       </c>
       <c r="B36">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C36">
-        <v>0.7402188247579877</v>
+        <v>-3.382453462135548</v>
       </c>
       <c r="D36">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E36">
-        <v>0.8312964622531727</v>
+        <v>-3.798381663081463</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>38120</v>
+        <v>34242</v>
       </c>
       <c r="B37">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C37">
-        <v>1.231552600417429</v>
+        <v>-1.939041036885902</v>
       </c>
       <c r="D37">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E37">
-        <v>1.411997612194371</v>
+        <v>-2.000177934300851</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>38211</v>
+        <v>34334</v>
       </c>
       <c r="B38">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C38">
-        <v>1.447343000002577</v>
+        <v>-0.9857661435315745</v>
       </c>
       <c r="D38">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E38">
-        <v>1.82769443373294</v>
+        <v>2.749399105380035</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>38302</v>
+        <v>34424</v>
       </c>
       <c r="B39">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="C39">
-        <v>1.171834509066594</v>
+        <v>1.039528440173587</v>
       </c>
       <c r="D39">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E39">
-        <v>0.9903242616768448</v>
+        <v>1.065531141148668</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>38398</v>
+        <v>34515</v>
       </c>
       <c r="B40">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C40">
-        <v>-0.3387572907866176</v>
+        <v>2.305922482069911</v>
       </c>
       <c r="D40">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E40">
-        <v>-0.4209881525946479</v>
+        <v>1.982627263179704</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>38484</v>
+        <v>34607</v>
       </c>
       <c r="B41">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C41">
-        <v>1.662136595904862</v>
+        <v>3.425442016211222</v>
       </c>
       <c r="D41">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E41">
-        <v>1.827756730533325</v>
+        <v>4.914752608837358</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>38575</v>
+        <v>34699</v>
       </c>
       <c r="B42">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C42">
-        <v>0.9842014045022385</v>
+        <v>3.052254893522388</v>
       </c>
       <c r="D42">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E42">
-        <v>1.439715469318781</v>
+        <v>3.682615332489014</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>38671</v>
+        <v>34789</v>
       </c>
       <c r="B43">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="C43">
-        <v>1.120380359544382</v>
+        <v>2.657573386723611</v>
       </c>
       <c r="D43">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E43">
-        <v>1.748547871956596</v>
+        <v>2.50432669154641</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>38762</v>
+        <v>34880</v>
       </c>
       <c r="B44">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C44">
-        <v>1.186187108678216</v>
+        <v>1.930360200805081</v>
       </c>
       <c r="D44">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E44">
-        <v>1.264916736827626</v>
+        <v>1.674662359455792</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>38848</v>
+        <v>34948</v>
       </c>
       <c r="B45">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C45">
-        <v>1.077979549909136</v>
+        <v>2.599251523277246</v>
       </c>
       <c r="D45">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E45">
-        <v>0.7520413575055507</v>
+        <v>2.692538626079632</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>38943</v>
+        <v>35040</v>
       </c>
       <c r="B46">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C46">
-        <v>2.494692038108415</v>
+        <v>2.234710814035812</v>
       </c>
       <c r="D46">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E46">
-        <v>3.219219949411833</v>
+        <v>1.985340189802254</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>39035</v>
+        <v>35131</v>
       </c>
       <c r="B47">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C47">
-        <v>2.691354324129258</v>
+        <v>-0.3647509200618404</v>
       </c>
       <c r="D47">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E47">
-        <v>3.401732673298752</v>
+        <v>-0.6042249764723895</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>39126</v>
+        <v>35221</v>
       </c>
       <c r="B48">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C48">
-        <v>3.456496114140184</v>
+        <v>-0.6457119968438452</v>
       </c>
       <c r="D48">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E48">
-        <v>3.357303637606668</v>
+        <v>-1.052124604989768</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>39217</v>
+        <v>35313</v>
       </c>
       <c r="B49">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C49">
-        <v>3.122775571986036</v>
+        <v>1.246728603552372</v>
       </c>
       <c r="D49">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E49">
-        <v>3.024115376008329</v>
+        <v>2.279724827447582</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>39308</v>
+        <v>35403</v>
       </c>
       <c r="B50">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C50">
-        <v>2.488380390628508</v>
+        <v>1.595002781738275</v>
       </c>
       <c r="D50">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E50">
-        <v>1.572813236521364</v>
+        <v>4.527833749234489</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>39400</v>
+        <v>35493</v>
       </c>
       <c r="B51">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C51">
-        <v>2.652245539637632</v>
+        <v>1.839489167234531</v>
       </c>
       <c r="D51">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E51">
-        <v>1.952346172688668</v>
+        <v>1.654128599775961</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>39492</v>
+        <v>35586</v>
       </c>
       <c r="B52">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C52">
-        <v>1.748723064020785</v>
+        <v>1.637407286847581</v>
       </c>
       <c r="D52">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E52">
-        <v>1.875037321406259</v>
+        <v>1.040154639513524</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>39583</v>
+        <v>35683</v>
       </c>
       <c r="B53">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C53">
-        <v>3.491843215754042</v>
+        <v>2.358868559590288</v>
       </c>
       <c r="D53">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E53">
-        <v>3.636770690692681</v>
+        <v>2.734117574261696</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>39674</v>
+        <v>35768</v>
       </c>
       <c r="B54">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C54">
-        <v>1.833151873155336</v>
+        <v>2.499560583078497</v>
       </c>
       <c r="D54">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E54">
-        <v>1.331787806668627</v>
+        <v>3.60450672427064</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>39765</v>
+        <v>35881</v>
       </c>
       <c r="B55">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C55">
-        <v>1.327195601304898</v>
+        <v>2.041541394678714</v>
       </c>
       <c r="D55">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E55">
-        <v>-1.894230483884274</v>
+        <v>1.985784343186503</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>39857</v>
+        <v>35950</v>
       </c>
       <c r="B56">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C56">
-        <v>-5.187499105176685</v>
+        <v>2.74356913534719</v>
       </c>
       <c r="D56">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E56">
-        <v>-5.195863643437393</v>
+        <v>2.539664199680325</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>39948</v>
+        <v>36047</v>
       </c>
       <c r="B57">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C57">
-        <v>-9.967856969961808</v>
+        <v>2.897382889029121</v>
       </c>
       <c r="D57">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E57">
-        <v>-11.5196655856436</v>
+        <v>2.956156864099446</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>40038</v>
+        <v>36132</v>
       </c>
       <c r="B58">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C58">
-        <v>-6.513960191839974</v>
+        <v>2.812603855740181</v>
       </c>
       <c r="D58">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E58">
-        <v>-5.820475746809295</v>
+        <v>1.930816112722122</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>40130</v>
+        <v>36223</v>
       </c>
       <c r="B59">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="C59">
-        <v>-4.803590807538871</v>
+        <v>0.7909843765922187</v>
       </c>
       <c r="D59">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E59">
-        <v>2.398039012205655</v>
+        <v>1.019061307944913</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>40221</v>
+        <v>36319</v>
       </c>
       <c r="B60">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C60">
-        <v>1.409651958917313</v>
+        <v>0.7888597985548307</v>
       </c>
       <c r="D60">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E60">
-        <v>1.48299270965464</v>
+        <v>0.5987699589588669</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>40310</v>
+        <v>36412</v>
       </c>
       <c r="B61">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C61">
-        <v>1.029866779127042</v>
+        <v>0.6691292373031121</v>
       </c>
       <c r="D61">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E61">
-        <v>0.6857794596530908</v>
+        <v>0.9436343345945453</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>40403</v>
+        <v>36501</v>
       </c>
       <c r="B62">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C62">
-        <v>3.856088863498885</v>
+        <v>1.188004848513446</v>
       </c>
       <c r="D62">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E62">
-        <v>5.613818157985784</v>
+        <v>1.735396560363034</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>40494</v>
+        <v>36587</v>
       </c>
       <c r="B63">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C63">
-        <v>3.776429555840499</v>
+        <v>2.946612544942728</v>
       </c>
       <c r="D63">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E63">
-        <v>5.925425027574871</v>
+        <v>3.150910407644503</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>40589</v>
+        <v>36676</v>
       </c>
       <c r="B64">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C64">
-        <v>2.523312665686062</v>
+        <v>2.664771795503063</v>
       </c>
       <c r="D64">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E64">
-        <v>2.142499917868856</v>
+        <v>2.764032264755434</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>40676</v>
+        <v>36767</v>
       </c>
       <c r="B65">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C65">
-        <v>4.145244495130851</v>
+        <v>3.374117361041096</v>
       </c>
       <c r="D65">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E65">
-        <v>3.780331133462078</v>
+        <v>3.944132347760299</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>40771</v>
+        <v>36858</v>
       </c>
       <c r="B66">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C66">
-        <v>3.255091791090003</v>
+        <v>3.277038745546235</v>
       </c>
       <c r="D66">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E66">
-        <v>2.81033475004111</v>
+        <v>3.38079189171907</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>40862</v>
+        <v>36951</v>
       </c>
       <c r="B67">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C67">
-        <v>3.167941427237042</v>
+        <v>1.20403170522827</v>
       </c>
       <c r="D67">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E67">
-        <v>1.594106077489155</v>
+        <v>0.9795934166991094</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>40954</v>
+        <v>37034</v>
       </c>
       <c r="B68">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C68">
-        <v>0.7140686941716767</v>
+        <v>1.400218588884683</v>
       </c>
       <c r="D68">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E68">
-        <v>0.7909685444746017</v>
+        <v>1.160631144748159</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41044</v>
+        <v>37126</v>
       </c>
       <c r="B69">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C69">
-        <v>0.9786807350580906</v>
+        <v>0.9833953941988716</v>
       </c>
       <c r="D69">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E69">
-        <v>0.6581980231485485</v>
+        <v>0.6848703993040717</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41135</v>
+        <v>37222</v>
       </c>
       <c r="B70">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C70">
-        <v>1.1820793294675</v>
+        <v>0.7513248531724415</v>
       </c>
       <c r="D70">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E70">
-        <v>1.519177166534513</v>
+        <v>-0.3560575271134625</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41228</v>
+        <v>37314</v>
       </c>
       <c r="B71">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C71">
-        <v>1.072335020576287</v>
+        <v>-0.7875891621750397</v>
       </c>
       <c r="D71">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="E71">
-        <v>1.008586723587968</v>
+        <v>-0.8402017816679708</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41319</v>
+        <v>37399</v>
       </c>
       <c r="B72">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C72">
-        <v>-0.7074334828655604</v>
+        <v>-0.1569753836008769</v>
       </c>
       <c r="D72">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E72">
-        <v>-0.7151790368584932</v>
+        <v>-0.1685209052814995</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41409</v>
+        <v>37490</v>
       </c>
       <c r="B73">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C73">
-        <v>-0.777091814962505</v>
+        <v>0.3668466771991952</v>
       </c>
       <c r="D73">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E73">
-        <v>-1.250178976072469</v>
+        <v>1.114594687526949</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41500</v>
+        <v>37581</v>
       </c>
       <c r="B74">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C74">
-        <v>0.5464115007837389</v>
+        <v>0.2537741062064169</v>
       </c>
       <c r="D74">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E74">
-        <v>1.541120060734702</v>
+        <v>0.8558213301539386</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41592</v>
+        <v>37678</v>
       </c>
       <c r="B75">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C75">
-        <v>0.5676944965793185</v>
+        <v>0.5101205247761031</v>
       </c>
       <c r="D75">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E75">
-        <v>2.053193956993082</v>
+        <v>0.5492364751862988</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41684</v>
+        <v>37756</v>
       </c>
       <c r="B76">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C76">
-        <v>1.519766126634647</v>
+        <v>-0.2549350829689212</v>
       </c>
       <c r="D76">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E76">
-        <v>1.419651728110827</v>
+        <v>-0.5172637947413516</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41774</v>
+        <v>37847</v>
       </c>
       <c r="B77">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C77">
-        <v>2.369554877519375</v>
+        <v>-0.3080225166850026</v>
       </c>
       <c r="D77">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E77">
-        <v>2.425108307063861</v>
+        <v>-0.5823337479265223</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41865</v>
+        <v>37938</v>
       </c>
       <c r="B78">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C78">
-        <v>1.424690548166696</v>
+        <v>-0.1535080579381121</v>
       </c>
       <c r="D78">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E78">
-        <v>0.9116223113354582</v>
+        <v>0.1609991203583183</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41957</v>
+        <v>38029</v>
       </c>
       <c r="B79">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C79">
-        <v>1.417171832295883</v>
+        <v>0.7402188247579877</v>
       </c>
       <c r="D79">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E79">
-        <v>-0.01881335499507308</v>
+        <v>0.8312964622531727</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>42048</v>
+        <v>38120</v>
       </c>
       <c r="B80">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C80">
-        <v>1.501951852855266</v>
+        <v>1.231552600417429</v>
       </c>
       <c r="D80">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E80">
-        <v>1.54067991264375</v>
+        <v>1.411997612194371</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>42137</v>
+        <v>38211</v>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C81">
-        <v>1.54676119882553</v>
+        <v>1.447343000002577</v>
       </c>
       <c r="D81">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E81">
-        <v>1.95821346593279</v>
+        <v>1.82769443373294</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>42230</v>
+        <v>38302</v>
       </c>
       <c r="B82">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C82">
-        <v>1.518046499250958</v>
+        <v>1.171834509066594</v>
       </c>
       <c r="D82">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E82">
-        <v>1.591139618572668</v>
+        <v>0.9903242616768448</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>42321</v>
+        <v>38398</v>
       </c>
       <c r="B83">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C83">
-        <v>1.475252114130599</v>
+        <v>-0.3387572907866176</v>
       </c>
       <c r="D83">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="E83">
-        <v>1.502189305289692</v>
+        <v>-0.4209881525946479</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>42412</v>
+        <v>38484</v>
       </c>
       <c r="B84">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C84">
-        <v>1.127691467243741</v>
+        <v>1.662136595904862</v>
       </c>
       <c r="D84">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E84">
-        <v>1.099354059105329</v>
+        <v>1.827756730533325</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>42503</v>
+        <v>38575</v>
       </c>
       <c r="B85">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C85">
-        <v>1.817217740277277</v>
+        <v>0.9842014045022385</v>
       </c>
       <c r="D85">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E85">
-        <v>1.881134389019978</v>
+        <v>1.439715469318781</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>42594</v>
+        <v>38671</v>
       </c>
       <c r="B86">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C86">
-        <v>1.972751341863344</v>
+        <v>1.120380359544382</v>
       </c>
       <c r="D86">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E86">
-        <v>2.221265396184391</v>
+        <v>1.748547871956596</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>42689</v>
+        <v>38762</v>
       </c>
       <c r="B87">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C87">
-        <v>1.71887541289224</v>
+        <v>1.186187108678216</v>
       </c>
       <c r="D87">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E87">
-        <v>1.182466603344334</v>
+        <v>1.264916736827626</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>42780</v>
+        <v>38848</v>
       </c>
       <c r="B88">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C88">
-        <v>1.214273651026332</v>
+        <v>1.077979549909136</v>
       </c>
       <c r="D88">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E88">
-        <v>1.131492555404856</v>
+        <v>0.7520413575055507</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>42867</v>
+        <v>38943</v>
       </c>
       <c r="B89">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C89">
-        <v>1.899245835424113</v>
+        <v>2.494692038108415</v>
       </c>
       <c r="D89">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E89">
-        <v>2.063015336985652</v>
+        <v>3.219219949411833</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>42962</v>
+        <v>39035</v>
       </c>
       <c r="B90">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C90">
-        <v>2.287041013671032</v>
+        <v>2.691354324129258</v>
       </c>
       <c r="D90">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E90">
-        <v>2.669169375570091</v>
+        <v>3.401732673298752</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>43053</v>
+        <v>39126</v>
       </c>
       <c r="B91">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="C91">
-        <v>2.581636142651922</v>
+        <v>3.456496114140184</v>
       </c>
       <c r="D91">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E91">
-        <v>2.971021877918134</v>
+        <v>3.357303637606668</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>43145</v>
+        <v>39217</v>
       </c>
       <c r="B92">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C92">
-        <v>2.685974713412698</v>
+        <v>3.122775571986036</v>
       </c>
       <c r="D92">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E92">
-        <v>2.712067038668109</v>
+        <v>3.024115376008329</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>43235</v>
+        <v>39308</v>
       </c>
       <c r="B93">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C93">
-        <v>1.969180991865693</v>
+        <v>2.488380390628508</v>
       </c>
       <c r="D93">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E93">
-        <v>1.820797328611801</v>
+        <v>1.572813236521364</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>43326</v>
+        <v>39400</v>
       </c>
       <c r="B94">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C94">
-        <v>1.852272302667846</v>
+        <v>2.652245539637632</v>
       </c>
       <c r="D94">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E94">
-        <v>1.656130016820256</v>
+        <v>1.952346172688668</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>43418</v>
+        <v>39492</v>
       </c>
       <c r="B95">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C95">
-        <v>1.471137749280693</v>
+        <v>1.748723064020785</v>
       </c>
       <c r="D95">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E95">
-        <v>0.4244220269781884</v>
+        <v>1.875037321406259</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>43510</v>
+        <v>39583</v>
       </c>
       <c r="B96">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C96">
-        <v>-0.2007416153947061</v>
+        <v>3.491843215754042</v>
       </c>
       <c r="D96">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E96">
-        <v>-0.362507813320434</v>
+        <v>3.636770690692681</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>43600</v>
+        <v>39674</v>
       </c>
       <c r="B97">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C97">
-        <v>0.7836898833048833</v>
+        <v>1.833151873155336</v>
       </c>
       <c r="D97">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E97">
-        <v>0.8862828026915626</v>
+        <v>1.331787806668627</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>43691</v>
+        <v>39765</v>
       </c>
       <c r="B98">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C98">
-        <v>0.644969622808067</v>
+        <v>1.327195601304898</v>
       </c>
       <c r="D98">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E98">
-        <v>0.5629693656313828</v>
+        <v>-1.894230483884274</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>43783</v>
+        <v>39857</v>
       </c>
       <c r="B99">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C99">
-        <v>0.508332909595044</v>
+        <v>-5.187499105176685</v>
       </c>
       <c r="D99">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E99">
-        <v>-0.2757402582850954</v>
+        <v>-5.195863643437393</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>43875</v>
+        <v>39948</v>
       </c>
       <c r="B100">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C100">
-        <v>0.3392564409533616</v>
+        <v>-9.967856969961808</v>
       </c>
       <c r="D100">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E100">
-        <v>0.4494534653806115</v>
+        <v>-11.5196655856436</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>43966</v>
+        <v>40038</v>
       </c>
       <c r="B101">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C101">
-        <v>-3.919926155910458</v>
+        <v>-6.513960191839974</v>
       </c>
       <c r="D101">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E101">
-        <v>-4.568365316363964</v>
+        <v>-5.820475746809295</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>44068</v>
+        <v>40130</v>
       </c>
       <c r="B102">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C102">
-        <v>-12.93767597048412</v>
+        <v>-4.803590807538871</v>
       </c>
       <c r="D102">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E102">
-        <v>-22.34240884641498</v>
+        <v>2.398039012205655</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>44159</v>
+        <v>40221</v>
       </c>
       <c r="B103">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C103">
-        <v>-5.494775307949129</v>
+        <v>1.409651958917313</v>
       </c>
       <c r="D103">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E103">
-        <v>-0.7166544947129094</v>
+        <v>1.48299270965464</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>44251</v>
+        <v>40310</v>
       </c>
       <c r="B104">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C104">
-        <v>13.49012343387297</v>
+        <v>1.029866779127042</v>
       </c>
       <c r="D104">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E104">
-        <v>18.91584348163817</v>
+        <v>0.6857794596530908</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>44341</v>
+        <v>40403</v>
       </c>
       <c r="B105">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C105">
-        <v>-0.833338981495324</v>
+        <v>3.856088863498885</v>
       </c>
       <c r="D105">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E105">
-        <v>-2.521100573087787</v>
+        <v>5.613818157985784</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>44432</v>
+        <v>40494</v>
       </c>
       <c r="B106">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C106">
-        <v>1.22750877752047</v>
+        <v>3.776429555840499</v>
       </c>
       <c r="D106">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E106">
-        <v>-0.2903843096585534</v>
+        <v>5.925425027574871</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>44525</v>
+        <v>40589</v>
       </c>
       <c r="B107">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C107">
-        <v>3.149343082976164</v>
+        <v>2.523312665686062</v>
       </c>
       <c r="D107">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E107">
-        <v>7.598241630053093</v>
+        <v>2.142499917868856</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>44617</v>
+        <v>40676</v>
       </c>
       <c r="B108">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C108">
-        <v>2.781712357034771</v>
+        <v>4.145244495130851</v>
       </c>
       <c r="D108">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E108">
-        <v>2.671022661935063</v>
+        <v>3.780331133462078</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>44706</v>
+        <v>40771</v>
       </c>
       <c r="B109">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C109">
-        <v>1.252593750045849</v>
+        <v>3.255091791090003</v>
       </c>
       <c r="D109">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E109">
-        <v>-0.2233821207767939</v>
+        <v>2.81033475004111</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>44798</v>
+        <v>40862</v>
       </c>
       <c r="B110">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C110">
-        <v>2.115060496980425</v>
+        <v>3.167941427237042</v>
       </c>
       <c r="D110">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E110">
-        <v>1.805856529936611</v>
+        <v>1.594106077489155</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>44890</v>
+        <v>40954</v>
       </c>
       <c r="B111">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C111">
-        <v>1.995866057153428</v>
+        <v>0.7140686941716767</v>
       </c>
       <c r="D111">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E111">
-        <v>1.046377579893853</v>
+        <v>0.7909685444746017</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>44981</v>
+        <v>41044</v>
       </c>
       <c r="B112">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C112">
-        <v>-0.01598485334187716</v>
+        <v>0.9786807350580906</v>
       </c>
       <c r="D112">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E112">
-        <v>0.07860134685897524</v>
+        <v>0.6581980231485485</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45071</v>
+        <v>41135</v>
       </c>
       <c r="B113">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C113">
-        <v>-1.180988750584033</v>
+        <v>1.1820793294675</v>
       </c>
       <c r="D113">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E113">
-        <v>-1.733442595222734</v>
+        <v>1.519177166534513</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45163</v>
+        <v>41228</v>
       </c>
       <c r="B114">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C114">
-        <v>-0.2637851431490312</v>
+        <v>1.072335020576287</v>
       </c>
       <c r="D114">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E114">
-        <v>-0.1343280350971088</v>
+        <v>1.008586723587968</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45254</v>
+        <v>41319</v>
       </c>
       <c r="B115">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="C115">
-        <v>-0.1168430792840458</v>
+        <v>-0.7074334828655604</v>
       </c>
       <c r="D115">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="E115">
-        <v>-0.01476437379130946</v>
+        <v>-0.7151790368584932</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45345</v>
+        <v>41409</v>
       </c>
       <c r="B116">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C116">
-        <v>-0.58220747504375</v>
+        <v>-0.777091814962505</v>
       </c>
       <c r="D116">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E116">
-        <v>-0.5913299442996456</v>
+        <v>-1.250178976072469</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45436</v>
+        <v>41500</v>
       </c>
       <c r="B117">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C117">
-        <v>-0.3246799661751343</v>
+        <v>0.5464115007837389</v>
       </c>
       <c r="D117">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E117">
-        <v>-0.5695548945734541</v>
+        <v>1.541120060734702</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45534</v>
+        <v>41592</v>
       </c>
       <c r="B118">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C118">
-        <v>0.01805671340668891</v>
+        <v>0.5676944965793185</v>
       </c>
       <c r="D118">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E118">
-        <v>0.2886105981460663</v>
+        <v>2.053193956993082</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45618</v>
+        <v>41684</v>
       </c>
       <c r="B119">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="C119">
-        <v>-0.1775688094211469</v>
+        <v>1.519766126634647</v>
       </c>
       <c r="D119">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="E119">
-        <v>-0.3126907272057444</v>
+        <v>1.419651728110827</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45713</v>
+        <v>41774</v>
       </c>
       <c r="B120">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C120">
-        <v>-0.2910688762263414</v>
+        <v>2.369554877519375</v>
       </c>
       <c r="D120">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="E120">
-        <v>-0.1907372325685941</v>
+        <v>2.425108307063861</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
+        <v>41865</v>
+      </c>
+      <c r="B121">
+        <v>2014</v>
+      </c>
+      <c r="C121">
+        <v>1.424690548166696</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
+        <v>0.9116223113354582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B122">
+        <v>2014</v>
+      </c>
+      <c r="C122">
+        <v>1.417171832295883</v>
+      </c>
+      <c r="D122">
+        <v>2015</v>
+      </c>
+      <c r="E122">
+        <v>-0.01881335499507308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>42048</v>
+      </c>
+      <c r="B123">
+        <v>2015</v>
+      </c>
+      <c r="C123">
+        <v>1.501951852855266</v>
+      </c>
+      <c r="D123">
+        <v>2016</v>
+      </c>
+      <c r="E123">
+        <v>1.54067991264375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B124">
+        <v>2015</v>
+      </c>
+      <c r="C124">
+        <v>1.54676119882553</v>
+      </c>
+      <c r="D124">
+        <v>2016</v>
+      </c>
+      <c r="E124">
+        <v>1.95821346593279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>42230</v>
+      </c>
+      <c r="B125">
+        <v>2015</v>
+      </c>
+      <c r="C125">
+        <v>1.518046499250958</v>
+      </c>
+      <c r="D125">
+        <v>2016</v>
+      </c>
+      <c r="E125">
+        <v>1.591139618572668</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B126">
+        <v>2015</v>
+      </c>
+      <c r="C126">
+        <v>1.475252114130599</v>
+      </c>
+      <c r="D126">
+        <v>2016</v>
+      </c>
+      <c r="E126">
+        <v>1.502189305289692</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>42412</v>
+      </c>
+      <c r="B127">
+        <v>2016</v>
+      </c>
+      <c r="C127">
+        <v>1.127691467243741</v>
+      </c>
+      <c r="D127">
+        <v>2017</v>
+      </c>
+      <c r="E127">
+        <v>1.099354059105329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B128">
+        <v>2016</v>
+      </c>
+      <c r="C128">
+        <v>1.817217740277277</v>
+      </c>
+      <c r="D128">
+        <v>2017</v>
+      </c>
+      <c r="E128">
+        <v>1.881134389019978</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>42594</v>
+      </c>
+      <c r="B129">
+        <v>2016</v>
+      </c>
+      <c r="C129">
+        <v>1.972751341863344</v>
+      </c>
+      <c r="D129">
+        <v>2017</v>
+      </c>
+      <c r="E129">
+        <v>2.221265396184391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B130">
+        <v>2016</v>
+      </c>
+      <c r="C130">
+        <v>1.71887541289224</v>
+      </c>
+      <c r="D130">
+        <v>2017</v>
+      </c>
+      <c r="E130">
+        <v>1.182466603344334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B131">
+        <v>2017</v>
+      </c>
+      <c r="C131">
+        <v>1.214273651026332</v>
+      </c>
+      <c r="D131">
+        <v>2018</v>
+      </c>
+      <c r="E131">
+        <v>1.131492555404856</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B132">
+        <v>2017</v>
+      </c>
+      <c r="C132">
+        <v>1.899245835424113</v>
+      </c>
+      <c r="D132">
+        <v>2018</v>
+      </c>
+      <c r="E132">
+        <v>2.063015336985652</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B133">
+        <v>2017</v>
+      </c>
+      <c r="C133">
+        <v>2.287041013671032</v>
+      </c>
+      <c r="D133">
+        <v>2018</v>
+      </c>
+      <c r="E133">
+        <v>2.669169375570091</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B134">
+        <v>2017</v>
+      </c>
+      <c r="C134">
+        <v>2.581636142651922</v>
+      </c>
+      <c r="D134">
+        <v>2018</v>
+      </c>
+      <c r="E134">
+        <v>2.971021877918134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B135">
+        <v>2018</v>
+      </c>
+      <c r="C135">
+        <v>2.685974713412698</v>
+      </c>
+      <c r="D135">
+        <v>2019</v>
+      </c>
+      <c r="E135">
+        <v>2.712067038668109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B136">
+        <v>2018</v>
+      </c>
+      <c r="C136">
+        <v>1.969180991865693</v>
+      </c>
+      <c r="D136">
+        <v>2019</v>
+      </c>
+      <c r="E136">
+        <v>1.820797328611801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B137">
+        <v>2018</v>
+      </c>
+      <c r="C137">
+        <v>1.852272302667846</v>
+      </c>
+      <c r="D137">
+        <v>2019</v>
+      </c>
+      <c r="E137">
+        <v>1.656130016820256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B138">
+        <v>2018</v>
+      </c>
+      <c r="C138">
+        <v>1.471137749280693</v>
+      </c>
+      <c r="D138">
+        <v>2019</v>
+      </c>
+      <c r="E138">
+        <v>0.4244220269781884</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B139">
+        <v>2019</v>
+      </c>
+      <c r="C139">
+        <v>-0.2007416153947061</v>
+      </c>
+      <c r="D139">
+        <v>2020</v>
+      </c>
+      <c r="E139">
+        <v>-0.362507813320434</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B140">
+        <v>2019</v>
+      </c>
+      <c r="C140">
+        <v>0.7836898833048833</v>
+      </c>
+      <c r="D140">
+        <v>2020</v>
+      </c>
+      <c r="E140">
+        <v>0.8862828026915626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>43691</v>
+      </c>
+      <c r="B141">
+        <v>2019</v>
+      </c>
+      <c r="C141">
+        <v>0.644969622808067</v>
+      </c>
+      <c r="D141">
+        <v>2020</v>
+      </c>
+      <c r="E141">
+        <v>0.5629693656313828</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B142">
+        <v>2019</v>
+      </c>
+      <c r="C142">
+        <v>0.508332909595044</v>
+      </c>
+      <c r="D142">
+        <v>2020</v>
+      </c>
+      <c r="E142">
+        <v>-0.2757402582850954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B143">
+        <v>2020</v>
+      </c>
+      <c r="C143">
+        <v>0.3392564409533616</v>
+      </c>
+      <c r="D143">
+        <v>2021</v>
+      </c>
+      <c r="E143">
+        <v>0.4494534653806115</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B144">
+        <v>2020</v>
+      </c>
+      <c r="C144">
+        <v>-3.919926155910458</v>
+      </c>
+      <c r="D144">
+        <v>2021</v>
+      </c>
+      <c r="E144">
+        <v>-4.568365316363964</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B145">
+        <v>2020</v>
+      </c>
+      <c r="C145">
+        <v>-12.93767597048412</v>
+      </c>
+      <c r="D145">
+        <v>2021</v>
+      </c>
+      <c r="E145">
+        <v>-22.34240884641498</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B146">
+        <v>2020</v>
+      </c>
+      <c r="C146">
+        <v>-5.494775307949129</v>
+      </c>
+      <c r="D146">
+        <v>2021</v>
+      </c>
+      <c r="E146">
+        <v>-0.7166544947129094</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B147">
+        <v>2021</v>
+      </c>
+      <c r="C147">
+        <v>13.49012343387297</v>
+      </c>
+      <c r="D147">
+        <v>2022</v>
+      </c>
+      <c r="E147">
+        <v>18.91584348163817</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B148">
+        <v>2021</v>
+      </c>
+      <c r="C148">
+        <v>-0.833338981495324</v>
+      </c>
+      <c r="D148">
+        <v>2022</v>
+      </c>
+      <c r="E148">
+        <v>-2.521100573087787</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B149">
+        <v>2021</v>
+      </c>
+      <c r="C149">
+        <v>1.22750877752047</v>
+      </c>
+      <c r="D149">
+        <v>2022</v>
+      </c>
+      <c r="E149">
+        <v>-0.2903843096585534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B150">
+        <v>2021</v>
+      </c>
+      <c r="C150">
+        <v>3.149343082976164</v>
+      </c>
+      <c r="D150">
+        <v>2022</v>
+      </c>
+      <c r="E150">
+        <v>7.598241630053093</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B151">
+        <v>2022</v>
+      </c>
+      <c r="C151">
+        <v>2.781712357034771</v>
+      </c>
+      <c r="D151">
+        <v>2023</v>
+      </c>
+      <c r="E151">
+        <v>2.671022661935063</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B152">
+        <v>2022</v>
+      </c>
+      <c r="C152">
+        <v>1.252593750045849</v>
+      </c>
+      <c r="D152">
+        <v>2023</v>
+      </c>
+      <c r="E152">
+        <v>-0.2233821207767939</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B153">
+        <v>2022</v>
+      </c>
+      <c r="C153">
+        <v>2.115060496980425</v>
+      </c>
+      <c r="D153">
+        <v>2023</v>
+      </c>
+      <c r="E153">
+        <v>1.805856529936611</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B154">
+        <v>2022</v>
+      </c>
+      <c r="C154">
+        <v>1.995866057153428</v>
+      </c>
+      <c r="D154">
+        <v>2023</v>
+      </c>
+      <c r="E154">
+        <v>1.046377579893853</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B155">
+        <v>2023</v>
+      </c>
+      <c r="C155">
+        <v>-0.01598485334187716</v>
+      </c>
+      <c r="D155">
+        <v>2024</v>
+      </c>
+      <c r="E155">
+        <v>0.07860134685897524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B156">
+        <v>2023</v>
+      </c>
+      <c r="C156">
+        <v>-1.180988750584033</v>
+      </c>
+      <c r="D156">
+        <v>2024</v>
+      </c>
+      <c r="E156">
+        <v>-1.733442595222734</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B157">
+        <v>2023</v>
+      </c>
+      <c r="C157">
+        <v>-0.2637851431490312</v>
+      </c>
+      <c r="D157">
+        <v>2024</v>
+      </c>
+      <c r="E157">
+        <v>-0.1343280350971088</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B158">
+        <v>2023</v>
+      </c>
+      <c r="C158">
+        <v>-0.1168430792840458</v>
+      </c>
+      <c r="D158">
+        <v>2024</v>
+      </c>
+      <c r="E158">
+        <v>-0.01476437379130946</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B159">
+        <v>2024</v>
+      </c>
+      <c r="C159">
+        <v>-0.58220747504375</v>
+      </c>
+      <c r="D159">
+        <v>2025</v>
+      </c>
+      <c r="E159">
+        <v>-0.5913299442996456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B160">
+        <v>2024</v>
+      </c>
+      <c r="C160">
+        <v>-0.3246799661751343</v>
+      </c>
+      <c r="D160">
+        <v>2025</v>
+      </c>
+      <c r="E160">
+        <v>-0.5695548945734541</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B161">
+        <v>2024</v>
+      </c>
+      <c r="C161">
+        <v>0.01805671340668891</v>
+      </c>
+      <c r="D161">
+        <v>2025</v>
+      </c>
+      <c r="E161">
+        <v>0.2886105981460663</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B162">
+        <v>2024</v>
+      </c>
+      <c r="C162">
+        <v>-0.1775688094211469</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
+      </c>
+      <c r="E162">
+        <v>-0.3126907272057444</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B163">
+        <v>2025</v>
+      </c>
+      <c r="C163">
+        <v>-0.2910688762263414</v>
+      </c>
+      <c r="D163">
+        <v>2026</v>
+      </c>
+      <c r="E163">
+        <v>-0.1907372325685941</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
         <v>45800</v>
       </c>
-      <c r="B121">
+      <c r="B164">
         <v>2025</v>
       </c>
-      <c r="C121">
+      <c r="C164">
         <v>0.3976998903947093</v>
       </c>
-      <c r="D121">
+      <c r="D164">
         <v>2026</v>
       </c>
-      <c r="E121">
+      <c r="E164">
         <v>0.4227294918721425</v>
       </c>
     </row>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_full.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2772 +417,2500 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31047</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>2.833670241322217</v>
+        <v>3.509161092519553</v>
       </c>
       <c r="D2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E2">
-        <v>2.864936526865769</v>
+        <v>5.871435380902312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31137</v>
+        <v>32598</v>
       </c>
       <c r="B3">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>6.188717057273996</v>
+        <v>4.860075657995888</v>
       </c>
       <c r="D3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E3">
-        <v>7.324134577874641</v>
+        <v>4.677208307084246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31228</v>
+        <v>32689</v>
       </c>
       <c r="B4">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C4">
-        <v>1.274495535013775</v>
+        <v>4.674707056384286</v>
       </c>
       <c r="D4">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E4">
-        <v>0.6162543489843353</v>
+        <v>4.526405235077502</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>31320</v>
+        <v>32781</v>
       </c>
       <c r="B5">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C5">
-        <v>1.95303319268807</v>
+        <v>3.820668451758857</v>
       </c>
       <c r="D5">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E5">
-        <v>1.085074655435037</v>
+        <v>2.829670918543781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>31412</v>
+        <v>32873</v>
       </c>
       <c r="B6">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C6">
-        <v>2.740628897120945</v>
+        <v>3.898460078540933</v>
       </c>
       <c r="D6">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E6">
-        <v>4.678955215093872</v>
+        <v>2.713537241942166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>31502</v>
+        <v>32963</v>
       </c>
       <c r="B7">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C7">
-        <v>3.790326852935189</v>
+        <v>4.09032179327582</v>
       </c>
       <c r="D7">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E7">
-        <v>3.875245003711592</v>
+        <v>4.214483821280934</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>31593</v>
+        <v>33054</v>
       </c>
       <c r="B8">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C8">
-        <v>0.7987811539740708</v>
+        <v>6.08517480942079</v>
       </c>
       <c r="D8">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>0.07643019850551713</v>
+        <v>6.655798235769961</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>31685</v>
+        <v>33146</v>
       </c>
       <c r="B9">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C9">
-        <v>1.876334074204866</v>
+        <v>4.914967634588563</v>
       </c>
       <c r="D9">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E9">
-        <v>1.408791240230167</v>
+        <v>5.013088184092429</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>31777</v>
+        <v>33238</v>
       </c>
       <c r="B10">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C10">
-        <v>2.269459987912947</v>
+        <v>5.356103277865332</v>
       </c>
       <c r="D10">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E10">
-        <v>3.802877396620263</v>
+        <v>5.503965428372259</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>31867</v>
+        <v>33328</v>
       </c>
       <c r="B11">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C11">
-        <v>3.60561184624264</v>
+        <v>7.575690443668526</v>
       </c>
       <c r="D11">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E11">
-        <v>3.497588251223394</v>
+        <v>7.999981608189999</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>31958</v>
+        <v>33419</v>
       </c>
       <c r="B12">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C12">
-        <v>-2.275857798620984</v>
+        <v>8.961416689426937</v>
       </c>
       <c r="D12">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E12">
-        <v>-3.016613995130724</v>
+        <v>9.375632354513574</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>32050</v>
+        <v>33511</v>
       </c>
       <c r="B13">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C13">
-        <v>0.4174932330959891</v>
+        <v>7.763468033210641</v>
       </c>
       <c r="D13">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E13">
-        <v>0.05689533670296676</v>
+        <v>7.759030451644988</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>32142</v>
+        <v>33603</v>
       </c>
       <c r="B14">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C14">
-        <v>1.253514454810789</v>
+        <v>5.955905607167122</v>
       </c>
       <c r="D14">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E14">
-        <v>5.852248234644364</v>
+        <v>0.8135327385245139</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>32233</v>
+        <v>33694</v>
       </c>
       <c r="B15">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C15">
-        <v>5.051662792493028</v>
+        <v>0.9663066580797741</v>
       </c>
       <c r="D15">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E15">
-        <v>4.66077938454339</v>
+        <v>0.5412852185804784</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>32324</v>
+        <v>33785</v>
       </c>
       <c r="B16">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C16">
-        <v>1.704500121876951</v>
+        <v>3.692571671353462</v>
       </c>
       <c r="D16">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E16">
-        <v>1.379850795239923</v>
+        <v>4.510931229133397</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>32416</v>
+        <v>33877</v>
       </c>
       <c r="B17">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C17">
-        <v>2.92174378678367</v>
+        <v>2.452743971679849</v>
       </c>
       <c r="D17">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E17">
-        <v>2.203477784686947</v>
+        <v>2.46453066391692</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>32508</v>
+        <v>33969</v>
       </c>
       <c r="B18">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C18">
-        <v>3.509161092519553</v>
+        <v>1.850401149566561</v>
       </c>
       <c r="D18">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E18">
-        <v>5.871435380902312</v>
+        <v>-0.3974186896141263</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>32598</v>
+        <v>34059</v>
       </c>
       <c r="B19">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C19">
-        <v>4.860075657995888</v>
+        <v>-0.5482457784371397</v>
       </c>
       <c r="D19">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E19">
-        <v>4.677208307084246</v>
+        <v>-0.5756163407700243</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>32689</v>
+        <v>34150</v>
       </c>
       <c r="B20">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C20">
-        <v>4.674707056384286</v>
+        <v>-3.382453462135548</v>
       </c>
       <c r="D20">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E20">
-        <v>4.526405235077502</v>
+        <v>-3.798381663081463</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>32781</v>
+        <v>34242</v>
       </c>
       <c r="B21">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C21">
-        <v>3.820668451758857</v>
+        <v>-1.939041036885902</v>
       </c>
       <c r="D21">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E21">
-        <v>2.829670918543781</v>
+        <v>-2.000177934300851</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>32873</v>
+        <v>34334</v>
       </c>
       <c r="B22">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C22">
-        <v>3.898460078540933</v>
+        <v>-0.9857661435315745</v>
       </c>
       <c r="D22">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E22">
-        <v>2.713537241942166</v>
+        <v>2.749399105380035</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>32963</v>
+        <v>34424</v>
       </c>
       <c r="B23">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C23">
-        <v>4.09032179327582</v>
+        <v>1.039528440173587</v>
       </c>
       <c r="D23">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E23">
-        <v>4.214483821280934</v>
+        <v>1.065531141148668</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>33054</v>
+        <v>34515</v>
       </c>
       <c r="B24">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C24">
-        <v>6.08517480942079</v>
+        <v>2.305922482069911</v>
       </c>
       <c r="D24">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E24">
-        <v>6.655798235769961</v>
+        <v>1.982627263179704</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>33146</v>
+        <v>34607</v>
       </c>
       <c r="B25">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C25">
-        <v>4.914967634588563</v>
+        <v>3.425442016211222</v>
       </c>
       <c r="D25">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E25">
-        <v>5.013088184092429</v>
+        <v>4.914752608837358</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>33238</v>
+        <v>34699</v>
       </c>
       <c r="B26">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C26">
-        <v>5.356103277865332</v>
+        <v>3.052254893522388</v>
       </c>
       <c r="D26">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E26">
-        <v>5.503965428372259</v>
+        <v>3.682615332489014</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>33328</v>
+        <v>34789</v>
       </c>
       <c r="B27">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C27">
-        <v>7.575690443668526</v>
+        <v>2.657573386723611</v>
       </c>
       <c r="D27">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E27">
-        <v>7.999981608189999</v>
+        <v>2.50432669154641</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>33419</v>
+        <v>34880</v>
       </c>
       <c r="B28">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C28">
-        <v>8.961416689426937</v>
+        <v>1.930360200805081</v>
       </c>
       <c r="D28">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E28">
-        <v>9.375632354513574</v>
+        <v>1.674662359455792</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>33511</v>
+        <v>34948</v>
       </c>
       <c r="B29">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C29">
-        <v>7.763468033210641</v>
+        <v>2.599251523277246</v>
       </c>
       <c r="D29">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E29">
-        <v>7.759030451644988</v>
+        <v>2.692538626079632</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>33603</v>
+        <v>35040</v>
       </c>
       <c r="B30">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C30">
-        <v>5.955905607167122</v>
+        <v>2.234710814035812</v>
       </c>
       <c r="D30">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E30">
-        <v>0.8135327385245139</v>
+        <v>1.985340189802254</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>33694</v>
+        <v>35131</v>
       </c>
       <c r="B31">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C31">
-        <v>0.9663066580797741</v>
+        <v>-0.3647509200618404</v>
       </c>
       <c r="D31">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E31">
-        <v>0.5412852185804784</v>
+        <v>-0.6042249764723895</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>33785</v>
+        <v>35221</v>
       </c>
       <c r="B32">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C32">
-        <v>3.692571671353462</v>
+        <v>-0.6457119968438452</v>
       </c>
       <c r="D32">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E32">
-        <v>4.510931229133397</v>
+        <v>-1.052124604989768</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>33877</v>
+        <v>35313</v>
       </c>
       <c r="B33">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C33">
-        <v>2.452743971679849</v>
+        <v>1.246728603552372</v>
       </c>
       <c r="D33">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E33">
-        <v>2.46453066391692</v>
+        <v>2.279724827447582</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>33969</v>
+        <v>35403</v>
       </c>
       <c r="B34">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C34">
-        <v>1.850401149566561</v>
+        <v>1.595002781738275</v>
       </c>
       <c r="D34">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E34">
-        <v>-0.3974186896141263</v>
+        <v>4.527833749234489</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>34059</v>
+        <v>35493</v>
       </c>
       <c r="B35">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C35">
-        <v>-0.5482457784371397</v>
+        <v>1.839489167234531</v>
       </c>
       <c r="D35">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E35">
-        <v>-0.5756163407700243</v>
+        <v>1.654128599775961</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>34150</v>
+        <v>35586</v>
       </c>
       <c r="B36">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C36">
-        <v>-3.382453462135548</v>
+        <v>1.637407286847581</v>
       </c>
       <c r="D36">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E36">
-        <v>-3.798381663081463</v>
+        <v>1.040154639513524</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>34242</v>
+        <v>35683</v>
       </c>
       <c r="B37">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C37">
-        <v>-1.939041036885902</v>
+        <v>2.358868559590288</v>
       </c>
       <c r="D37">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E37">
-        <v>-2.000177934300851</v>
+        <v>2.734117574261696</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>34334</v>
+        <v>35768</v>
       </c>
       <c r="B38">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C38">
-        <v>-0.9857661435315745</v>
+        <v>2.499560583078497</v>
       </c>
       <c r="D38">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E38">
-        <v>2.749399105380035</v>
+        <v>3.60450672427064</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>34424</v>
+        <v>35881</v>
       </c>
       <c r="B39">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C39">
-        <v>1.039528440173587</v>
+        <v>2.041541394678714</v>
       </c>
       <c r="D39">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E39">
-        <v>1.065531141148668</v>
+        <v>1.985784343186503</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>34515</v>
+        <v>35950</v>
       </c>
       <c r="B40">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C40">
-        <v>2.305922482069911</v>
+        <v>2.74356913534719</v>
       </c>
       <c r="D40">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E40">
-        <v>1.982627263179704</v>
+        <v>2.539664199680325</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>34607</v>
+        <v>36047</v>
       </c>
       <c r="B41">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C41">
-        <v>3.425442016211222</v>
+        <v>2.897382889029121</v>
       </c>
       <c r="D41">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E41">
-        <v>4.914752608837358</v>
+        <v>2.956156864099446</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>34699</v>
+        <v>36132</v>
       </c>
       <c r="B42">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C42">
-        <v>3.052254893522388</v>
+        <v>2.812603855740181</v>
       </c>
       <c r="D42">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E42">
-        <v>3.682615332489014</v>
+        <v>1.930816112722122</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>34789</v>
+        <v>36223</v>
       </c>
       <c r="B43">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C43">
-        <v>2.657573386723611</v>
+        <v>0.7909843765922187</v>
       </c>
       <c r="D43">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E43">
-        <v>2.50432669154641</v>
+        <v>1.019061307944913</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>34880</v>
+        <v>36319</v>
       </c>
       <c r="B44">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C44">
-        <v>1.930360200805081</v>
+        <v>0.7888597985548307</v>
       </c>
       <c r="D44">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E44">
-        <v>1.674662359455792</v>
+        <v>0.5987699589588669</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>34948</v>
+        <v>36412</v>
       </c>
       <c r="B45">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C45">
-        <v>2.599251523277246</v>
+        <v>0.6691292373031121</v>
       </c>
       <c r="D45">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E45">
-        <v>2.692538626079632</v>
+        <v>0.9436343345945453</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>35040</v>
+        <v>36501</v>
       </c>
       <c r="B46">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C46">
-        <v>2.234710814035812</v>
+        <v>1.188004848513446</v>
       </c>
       <c r="D46">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E46">
-        <v>1.985340189802254</v>
+        <v>1.735396560363034</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>35131</v>
+        <v>36587</v>
       </c>
       <c r="B47">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C47">
-        <v>-0.3647509200618404</v>
+        <v>2.946612544942728</v>
       </c>
       <c r="D47">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E47">
-        <v>-0.6042249764723895</v>
+        <v>3.150910407644503</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>35221</v>
+        <v>36676</v>
       </c>
       <c r="B48">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C48">
-        <v>-0.6457119968438452</v>
+        <v>2.664771795503063</v>
       </c>
       <c r="D48">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E48">
-        <v>-1.052124604989768</v>
+        <v>2.764032264755434</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>35313</v>
+        <v>36767</v>
       </c>
       <c r="B49">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C49">
-        <v>1.246728603552372</v>
+        <v>3.374117361041096</v>
       </c>
       <c r="D49">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E49">
-        <v>2.279724827447582</v>
+        <v>3.944132347760299</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>35403</v>
+        <v>36858</v>
       </c>
       <c r="B50">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C50">
-        <v>1.595002781738275</v>
+        <v>3.277038745546235</v>
       </c>
       <c r="D50">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E50">
-        <v>4.527833749234489</v>
+        <v>3.38079189171907</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>35493</v>
+        <v>36951</v>
       </c>
       <c r="B51">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C51">
-        <v>1.839489167234531</v>
+        <v>1.20403170522827</v>
       </c>
       <c r="D51">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E51">
-        <v>1.654128599775961</v>
+        <v>0.9795934166991094</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>35586</v>
+        <v>37034</v>
       </c>
       <c r="B52">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C52">
-        <v>1.637407286847581</v>
+        <v>1.400218588884683</v>
       </c>
       <c r="D52">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E52">
-        <v>1.040154639513524</v>
+        <v>1.160631144748159</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>35683</v>
+        <v>37126</v>
       </c>
       <c r="B53">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C53">
-        <v>2.358868559590288</v>
+        <v>0.9833953941988716</v>
       </c>
       <c r="D53">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E53">
-        <v>2.734117574261696</v>
+        <v>0.6848703993040717</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>35768</v>
+        <v>37222</v>
       </c>
       <c r="B54">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C54">
-        <v>2.499560583078497</v>
+        <v>0.7513248531724415</v>
       </c>
       <c r="D54">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E54">
-        <v>3.60450672427064</v>
+        <v>-0.3560575271134625</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>35881</v>
+        <v>37314</v>
       </c>
       <c r="B55">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C55">
-        <v>2.041541394678714</v>
+        <v>-0.7875891621750397</v>
       </c>
       <c r="D55">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E55">
-        <v>1.985784343186503</v>
+        <v>-0.8402017816679708</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>35950</v>
+        <v>37399</v>
       </c>
       <c r="B56">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C56">
-        <v>2.74356913534719</v>
+        <v>-0.1569753836008769</v>
       </c>
       <c r="D56">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E56">
-        <v>2.539664199680325</v>
+        <v>-0.1685209052814995</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>36047</v>
+        <v>37490</v>
       </c>
       <c r="B57">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C57">
-        <v>2.897382889029121</v>
+        <v>0.3668466771991952</v>
       </c>
       <c r="D57">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E57">
-        <v>2.956156864099446</v>
+        <v>1.114594687526949</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>36132</v>
+        <v>37581</v>
       </c>
       <c r="B58">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C58">
-        <v>2.812603855740181</v>
+        <v>0.2537741062064169</v>
       </c>
       <c r="D58">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E58">
-        <v>1.930816112722122</v>
+        <v>0.8558213301539386</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>36223</v>
+        <v>37678</v>
       </c>
       <c r="B59">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C59">
-        <v>0.7909843765922187</v>
+        <v>0.5101205247761031</v>
       </c>
       <c r="D59">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E59">
-        <v>1.019061307944913</v>
+        <v>0.5492364751862988</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>36319</v>
+        <v>37756</v>
       </c>
       <c r="B60">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C60">
-        <v>0.7888597985548307</v>
+        <v>-0.2549350829689212</v>
       </c>
       <c r="D60">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E60">
-        <v>0.5987699589588669</v>
+        <v>-0.5172637947413516</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>36412</v>
+        <v>37847</v>
       </c>
       <c r="B61">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C61">
-        <v>0.6691292373031121</v>
+        <v>-0.3080225166850026</v>
       </c>
       <c r="D61">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E61">
-        <v>0.9436343345945453</v>
+        <v>-0.5823337479265223</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>36501</v>
+        <v>37938</v>
       </c>
       <c r="B62">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C62">
-        <v>1.188004848513446</v>
+        <v>-0.1535080579381121</v>
       </c>
       <c r="D62">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E62">
-        <v>1.735396560363034</v>
+        <v>0.1609991203583183</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>36587</v>
+        <v>38029</v>
       </c>
       <c r="B63">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C63">
-        <v>2.946612544942728</v>
+        <v>0.7402188247579877</v>
       </c>
       <c r="D63">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E63">
-        <v>3.150910407644503</v>
+        <v>0.8312964622531727</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>36676</v>
+        <v>38120</v>
       </c>
       <c r="B64">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C64">
-        <v>2.664771795503063</v>
+        <v>1.231552600417429</v>
       </c>
       <c r="D64">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E64">
-        <v>2.764032264755434</v>
+        <v>1.411997612194371</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>36767</v>
+        <v>38211</v>
       </c>
       <c r="B65">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C65">
-        <v>3.374117361041096</v>
+        <v>1.447343000002577</v>
       </c>
       <c r="D65">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E65">
-        <v>3.944132347760299</v>
+        <v>1.82769443373294</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>36858</v>
+        <v>38302</v>
       </c>
       <c r="B66">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C66">
-        <v>3.277038745546235</v>
+        <v>1.171834509066594</v>
       </c>
       <c r="D66">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E66">
-        <v>3.38079189171907</v>
+        <v>0.9903242616768448</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>36951</v>
+        <v>38398</v>
       </c>
       <c r="B67">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C67">
-        <v>1.20403170522827</v>
+        <v>-0.3387572907866176</v>
       </c>
       <c r="D67">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E67">
-        <v>0.9795934166991094</v>
+        <v>-0.4209881525946479</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>37034</v>
+        <v>38484</v>
       </c>
       <c r="B68">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C68">
-        <v>1.400218588884683</v>
+        <v>1.662136595904862</v>
       </c>
       <c r="D68">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E68">
-        <v>1.160631144748159</v>
+        <v>1.827756730533325</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>37126</v>
+        <v>38575</v>
       </c>
       <c r="B69">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C69">
-        <v>0.9833953941988716</v>
+        <v>0.9842014045022385</v>
       </c>
       <c r="D69">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E69">
-        <v>0.6848703993040717</v>
+        <v>1.439715469318781</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>37222</v>
+        <v>38671</v>
       </c>
       <c r="B70">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C70">
-        <v>0.7513248531724415</v>
+        <v>1.120380359544382</v>
       </c>
       <c r="D70">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E70">
-        <v>-0.3560575271134625</v>
+        <v>1.748547871956596</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>37314</v>
+        <v>38762</v>
       </c>
       <c r="B71">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C71">
-        <v>-0.7875891621750397</v>
+        <v>1.186187108678216</v>
       </c>
       <c r="D71">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E71">
-        <v>-0.8402017816679708</v>
+        <v>1.264916736827626</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>37399</v>
+        <v>38848</v>
       </c>
       <c r="B72">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C72">
-        <v>-0.1569753836008769</v>
+        <v>1.077979549909136</v>
       </c>
       <c r="D72">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E72">
-        <v>-0.1685209052814995</v>
+        <v>0.7520413575055507</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>37490</v>
+        <v>38943</v>
       </c>
       <c r="B73">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C73">
-        <v>0.3668466771991952</v>
+        <v>2.494692038108415</v>
       </c>
       <c r="D73">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E73">
-        <v>1.114594687526949</v>
+        <v>3.219219949411833</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>37581</v>
+        <v>39035</v>
       </c>
       <c r="B74">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C74">
-        <v>0.2537741062064169</v>
+        <v>2.691354324129258</v>
       </c>
       <c r="D74">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E74">
-        <v>0.8558213301539386</v>
+        <v>3.401732673298752</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>37678</v>
+        <v>39126</v>
       </c>
       <c r="B75">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C75">
-        <v>0.5101205247761031</v>
+        <v>3.456496114140184</v>
       </c>
       <c r="D75">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E75">
-        <v>0.5492364751862988</v>
+        <v>3.357303637606668</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>37756</v>
+        <v>39217</v>
       </c>
       <c r="B76">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>-0.2549350829689212</v>
+        <v>3.122775571986036</v>
       </c>
       <c r="D76">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E76">
-        <v>-0.5172637947413516</v>
+        <v>3.024115376008329</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>37847</v>
+        <v>39308</v>
       </c>
       <c r="B77">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C77">
-        <v>-0.3080225166850026</v>
+        <v>2.488380390628508</v>
       </c>
       <c r="D77">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E77">
-        <v>-0.5823337479265223</v>
+        <v>1.572813236521364</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>37938</v>
+        <v>39400</v>
       </c>
       <c r="B78">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C78">
-        <v>-0.1535080579381121</v>
+        <v>2.652245539637632</v>
       </c>
       <c r="D78">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E78">
-        <v>0.1609991203583183</v>
+        <v>1.952346172688668</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>38029</v>
+        <v>39492</v>
       </c>
       <c r="B79">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C79">
-        <v>0.7402188247579877</v>
+        <v>1.748723064020785</v>
       </c>
       <c r="D79">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E79">
-        <v>0.8312964622531727</v>
+        <v>1.875037321406259</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>38120</v>
+        <v>39583</v>
       </c>
       <c r="B80">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C80">
-        <v>1.231552600417429</v>
+        <v>3.491843215754042</v>
       </c>
       <c r="D80">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E80">
-        <v>1.411997612194371</v>
+        <v>3.636770690692681</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>38211</v>
+        <v>39674</v>
       </c>
       <c r="B81">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C81">
-        <v>1.447343000002577</v>
+        <v>1.833151873155336</v>
       </c>
       <c r="D81">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E81">
-        <v>1.82769443373294</v>
+        <v>1.331787806668627</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>38302</v>
+        <v>39765</v>
       </c>
       <c r="B82">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C82">
-        <v>1.171834509066594</v>
+        <v>1.327195601304898</v>
       </c>
       <c r="D82">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E82">
-        <v>0.9903242616768448</v>
+        <v>-1.894230483884274</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>38398</v>
+        <v>39857</v>
       </c>
       <c r="B83">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C83">
-        <v>-0.3387572907866176</v>
+        <v>-5.187499105176685</v>
       </c>
       <c r="D83">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E83">
-        <v>-0.4209881525946479</v>
+        <v>-5.195863643437393</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>38484</v>
+        <v>39948</v>
       </c>
       <c r="B84">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C84">
-        <v>1.662136595904862</v>
+        <v>-9.967856969961808</v>
       </c>
       <c r="D84">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E84">
-        <v>1.827756730533325</v>
+        <v>-11.5196655856436</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>38575</v>
+        <v>40038</v>
       </c>
       <c r="B85">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C85">
-        <v>0.9842014045022385</v>
+        <v>-6.513960191839974</v>
       </c>
       <c r="D85">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E85">
-        <v>1.439715469318781</v>
+        <v>-5.820475746809295</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>38671</v>
+        <v>40130</v>
       </c>
       <c r="B86">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C86">
-        <v>1.120380359544382</v>
+        <v>-4.803590807538871</v>
       </c>
       <c r="D86">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E86">
-        <v>1.748547871956596</v>
+        <v>2.398039012205655</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>38762</v>
+        <v>40221</v>
       </c>
       <c r="B87">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C87">
-        <v>1.186187108678216</v>
+        <v>1.409651958917313</v>
       </c>
       <c r="D87">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E87">
-        <v>1.264916736827626</v>
+        <v>1.48299270965464</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>38848</v>
+        <v>40310</v>
       </c>
       <c r="B88">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C88">
-        <v>1.077979549909136</v>
+        <v>1.029866779127042</v>
       </c>
       <c r="D88">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E88">
-        <v>0.7520413575055507</v>
+        <v>0.6857794596530908</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>38943</v>
+        <v>40403</v>
       </c>
       <c r="B89">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C89">
-        <v>2.494692038108415</v>
+        <v>3.856088863498885</v>
       </c>
       <c r="D89">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E89">
-        <v>3.219219949411833</v>
+        <v>5.613818157985784</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>39035</v>
+        <v>40494</v>
       </c>
       <c r="B90">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C90">
-        <v>2.691354324129258</v>
+        <v>3.776429555840499</v>
       </c>
       <c r="D90">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E90">
-        <v>3.401732673298752</v>
+        <v>5.925425027574871</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>39126</v>
+        <v>40589</v>
       </c>
       <c r="B91">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C91">
-        <v>3.456496114140184</v>
+        <v>2.523312665686062</v>
       </c>
       <c r="D91">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E91">
-        <v>3.357303637606668</v>
+        <v>2.142499917868856</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>39217</v>
+        <v>40676</v>
       </c>
       <c r="B92">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C92">
-        <v>3.122775571986036</v>
+        <v>4.145244495130851</v>
       </c>
       <c r="D92">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E92">
-        <v>3.024115376008329</v>
+        <v>3.780331133462078</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>39308</v>
+        <v>40771</v>
       </c>
       <c r="B93">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C93">
-        <v>2.488380390628508</v>
+        <v>3.255091791090003</v>
       </c>
       <c r="D93">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E93">
-        <v>1.572813236521364</v>
+        <v>2.81033475004111</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>39400</v>
+        <v>40862</v>
       </c>
       <c r="B94">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C94">
-        <v>2.652245539637632</v>
+        <v>3.167941427237042</v>
       </c>
       <c r="D94">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E94">
-        <v>1.952346172688668</v>
+        <v>1.594106077489155</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>39492</v>
+        <v>40954</v>
       </c>
       <c r="B95">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C95">
-        <v>1.748723064020785</v>
+        <v>0.7140686941716767</v>
       </c>
       <c r="D95">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E95">
-        <v>1.875037321406259</v>
+        <v>0.7909685444746017</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>39583</v>
+        <v>41044</v>
       </c>
       <c r="B96">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C96">
-        <v>3.491843215754042</v>
+        <v>0.9786807350580906</v>
       </c>
       <c r="D96">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E96">
-        <v>3.636770690692681</v>
+        <v>0.6581980231485485</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>39674</v>
+        <v>41135</v>
       </c>
       <c r="B97">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C97">
-        <v>1.833151873155336</v>
+        <v>1.1820793294675</v>
       </c>
       <c r="D97">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E97">
-        <v>1.331787806668627</v>
+        <v>1.519177166534513</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>39765</v>
+        <v>41228</v>
       </c>
       <c r="B98">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C98">
-        <v>1.327195601304898</v>
+        <v>1.072335020576287</v>
       </c>
       <c r="D98">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E98">
-        <v>-1.894230483884274</v>
+        <v>1.008586723587968</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>39857</v>
+        <v>41319</v>
       </c>
       <c r="B99">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C99">
-        <v>-5.187499105176685</v>
+        <v>-0.7074334828655604</v>
       </c>
       <c r="D99">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E99">
-        <v>-5.195863643437393</v>
+        <v>-0.7151790368584932</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>39948</v>
+        <v>41409</v>
       </c>
       <c r="B100">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C100">
-        <v>-9.967856969961808</v>
+        <v>-0.777091814962505</v>
       </c>
       <c r="D100">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E100">
-        <v>-11.5196655856436</v>
+        <v>-1.250178976072469</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>40038</v>
+        <v>41500</v>
       </c>
       <c r="B101">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C101">
-        <v>-6.513960191839974</v>
+        <v>0.5464115007837389</v>
       </c>
       <c r="D101">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E101">
-        <v>-5.820475746809295</v>
+        <v>1.541120060734702</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>40130</v>
+        <v>41592</v>
       </c>
       <c r="B102">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C102">
-        <v>-4.803590807538871</v>
+        <v>0.5676944965793185</v>
       </c>
       <c r="D102">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E102">
-        <v>2.398039012205655</v>
+        <v>2.053193956993082</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>40221</v>
+        <v>41684</v>
       </c>
       <c r="B103">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C103">
-        <v>1.409651958917313</v>
+        <v>1.519766126634647</v>
       </c>
       <c r="D103">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E103">
-        <v>1.48299270965464</v>
+        <v>1.419651728110827</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>40310</v>
+        <v>41774</v>
       </c>
       <c r="B104">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C104">
-        <v>1.029866779127042</v>
+        <v>2.369554877519375</v>
       </c>
       <c r="D104">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E104">
-        <v>0.6857794596530908</v>
+        <v>2.425108307063861</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>40403</v>
+        <v>41865</v>
       </c>
       <c r="B105">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C105">
-        <v>3.856088863498885</v>
+        <v>1.424690548166696</v>
       </c>
       <c r="D105">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E105">
-        <v>5.613818157985784</v>
+        <v>0.9116223113354582</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>40494</v>
+        <v>41957</v>
       </c>
       <c r="B106">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C106">
-        <v>3.776429555840499</v>
+        <v>1.417171832295883</v>
       </c>
       <c r="D106">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E106">
-        <v>5.925425027574871</v>
+        <v>-0.01881335499507308</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>40589</v>
+        <v>42048</v>
       </c>
       <c r="B107">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C107">
-        <v>2.523312665686062</v>
+        <v>1.501951852855266</v>
       </c>
       <c r="D107">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E107">
-        <v>2.142499917868856</v>
+        <v>1.54067991264375</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>40676</v>
+        <v>42137</v>
       </c>
       <c r="B108">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C108">
-        <v>4.145244495130851</v>
+        <v>1.54676119882553</v>
       </c>
       <c r="D108">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E108">
-        <v>3.780331133462078</v>
+        <v>1.95821346593279</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>40771</v>
+        <v>42230</v>
       </c>
       <c r="B109">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C109">
-        <v>3.255091791090003</v>
+        <v>1.518046499250958</v>
       </c>
       <c r="D109">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E109">
-        <v>2.81033475004111</v>
+        <v>1.591139618572668</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B110">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C110">
-        <v>3.167941427237042</v>
+        <v>1.475252114130599</v>
       </c>
       <c r="D110">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E110">
-        <v>1.594106077489155</v>
+        <v>1.502189305289692</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>40954</v>
+        <v>42412</v>
       </c>
       <c r="B111">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C111">
-        <v>0.7140686941716767</v>
+        <v>1.127691467243741</v>
       </c>
       <c r="D111">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E111">
-        <v>0.7909685444746017</v>
+        <v>1.099354059105329</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41044</v>
+        <v>42503</v>
       </c>
       <c r="B112">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C112">
-        <v>0.9786807350580906</v>
+        <v>1.817217740277277</v>
       </c>
       <c r="D112">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E112">
-        <v>0.6581980231485485</v>
+        <v>1.881134389019978</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41135</v>
+        <v>42594</v>
       </c>
       <c r="B113">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C113">
-        <v>1.1820793294675</v>
+        <v>1.972751341863344</v>
       </c>
       <c r="D113">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E113">
-        <v>1.519177166534513</v>
+        <v>2.221265396184391</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41228</v>
+        <v>42689</v>
       </c>
       <c r="B114">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C114">
-        <v>1.072335020576287</v>
+        <v>1.71887541289224</v>
       </c>
       <c r="D114">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E114">
-        <v>1.008586723587968</v>
+        <v>1.182466603344334</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41319</v>
+        <v>42780</v>
       </c>
       <c r="B115">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C115">
-        <v>-0.7074334828655604</v>
+        <v>1.214273651026332</v>
       </c>
       <c r="D115">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E115">
-        <v>-0.7151790368584932</v>
+        <v>1.131492555404856</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41409</v>
+        <v>42867</v>
       </c>
       <c r="B116">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C116">
-        <v>-0.777091814962505</v>
+        <v>1.899245835424113</v>
       </c>
       <c r="D116">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E116">
-        <v>-1.250178976072469</v>
+        <v>2.063015336985652</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41500</v>
+        <v>42962</v>
       </c>
       <c r="B117">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C117">
-        <v>0.5464115007837389</v>
+        <v>2.287041013671032</v>
       </c>
       <c r="D117">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E117">
-        <v>1.541120060734702</v>
+        <v>2.669169375570091</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41592</v>
+        <v>43053</v>
       </c>
       <c r="B118">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C118">
-        <v>0.5676944965793185</v>
+        <v>2.581636142651922</v>
       </c>
       <c r="D118">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E118">
-        <v>2.053193956993082</v>
+        <v>2.971021877918134</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41684</v>
+        <v>43145</v>
       </c>
       <c r="B119">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C119">
-        <v>1.519766126634647</v>
+        <v>2.685974713412698</v>
       </c>
       <c r="D119">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E119">
-        <v>1.419651728110827</v>
+        <v>2.712067038668109</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41774</v>
+        <v>43235</v>
       </c>
       <c r="B120">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C120">
-        <v>2.369554877519375</v>
+        <v>1.969180991865693</v>
       </c>
       <c r="D120">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E120">
-        <v>2.425108307063861</v>
+        <v>1.820797328611801</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41865</v>
+        <v>43326</v>
       </c>
       <c r="B121">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C121">
-        <v>1.424690548166696</v>
+        <v>1.852272302667846</v>
       </c>
       <c r="D121">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E121">
-        <v>0.9116223113354582</v>
+        <v>1.656130016820256</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41957</v>
+        <v>43418</v>
       </c>
       <c r="B122">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C122">
-        <v>1.417171832295883</v>
+        <v>1.471137749280693</v>
       </c>
       <c r="D122">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E122">
-        <v>-0.01881335499507308</v>
+        <v>0.4244220269781884</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>42048</v>
+        <v>43510</v>
       </c>
       <c r="B123">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C123">
-        <v>1.501951852855266</v>
+        <v>-0.2007416153947061</v>
       </c>
       <c r="D123">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E123">
-        <v>1.54067991264375</v>
+        <v>-0.362507813320434</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>42137</v>
+        <v>43600</v>
       </c>
       <c r="B124">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C124">
-        <v>1.54676119882553</v>
+        <v>0.7836898833048833</v>
       </c>
       <c r="D124">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E124">
-        <v>1.95821346593279</v>
+        <v>0.8862828026915626</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>42230</v>
+        <v>43691</v>
       </c>
       <c r="B125">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C125">
-        <v>1.518046499250958</v>
+        <v>0.644969622808067</v>
       </c>
       <c r="D125">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E125">
-        <v>1.591139618572668</v>
+        <v>0.5629693656313828</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>42321</v>
+        <v>43783</v>
       </c>
       <c r="B126">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C126">
-        <v>1.475252114130599</v>
+        <v>0.508332909595044</v>
       </c>
       <c r="D126">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E126">
-        <v>1.502189305289692</v>
+        <v>-0.2757402582850954</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>42412</v>
+        <v>43875</v>
       </c>
       <c r="B127">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C127">
-        <v>1.127691467243741</v>
+        <v>0.3392564409533616</v>
       </c>
       <c r="D127">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E127">
-        <v>1.099354059105329</v>
+        <v>0.4494534653806115</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>42503</v>
+        <v>43966</v>
       </c>
       <c r="B128">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C128">
-        <v>1.817217740277277</v>
+        <v>-3.919926155910458</v>
       </c>
       <c r="D128">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E128">
-        <v>1.881134389019978</v>
+        <v>-4.568365316363964</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>42594</v>
+        <v>44068</v>
       </c>
       <c r="B129">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C129">
-        <v>1.972751341863344</v>
+        <v>-12.93767597048412</v>
       </c>
       <c r="D129">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E129">
-        <v>2.221265396184391</v>
+        <v>-22.34240884641498</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>42689</v>
+        <v>44159</v>
       </c>
       <c r="B130">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C130">
-        <v>1.71887541289224</v>
+        <v>-5.494775307949129</v>
       </c>
       <c r="D130">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E130">
-        <v>1.182466603344334</v>
+        <v>-0.7166544947129094</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>42780</v>
+        <v>44251</v>
       </c>
       <c r="B131">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C131">
-        <v>1.214273651026332</v>
+        <v>13.49012343387297</v>
       </c>
       <c r="D131">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E131">
-        <v>1.131492555404856</v>
+        <v>18.91584348163817</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>42867</v>
+        <v>44341</v>
       </c>
       <c r="B132">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C132">
-        <v>1.899245835424113</v>
+        <v>-0.833338981495324</v>
       </c>
       <c r="D132">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E132">
-        <v>2.063015336985652</v>
+        <v>-2.521100573087787</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>42962</v>
+        <v>44432</v>
       </c>
       <c r="B133">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C133">
-        <v>2.287041013671032</v>
+        <v>1.22750877752047</v>
       </c>
       <c r="D133">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E133">
-        <v>2.669169375570091</v>
+        <v>-0.2903843096585534</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>43053</v>
+        <v>44525</v>
       </c>
       <c r="B134">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C134">
-        <v>2.581636142651922</v>
+        <v>3.149343082976164</v>
       </c>
       <c r="D134">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E134">
-        <v>2.971021877918134</v>
+        <v>7.598241630053093</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>43145</v>
+        <v>44617</v>
       </c>
       <c r="B135">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C135">
-        <v>2.685974713412698</v>
+        <v>2.781712357034771</v>
       </c>
       <c r="D135">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E135">
-        <v>2.712067038668109</v>
+        <v>2.671022661935063</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>43235</v>
+        <v>44706</v>
       </c>
       <c r="B136">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C136">
-        <v>1.969180991865693</v>
+        <v>1.252593750045849</v>
       </c>
       <c r="D136">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E136">
-        <v>1.820797328611801</v>
+        <v>-0.2233821207767939</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>43326</v>
+        <v>44798</v>
       </c>
       <c r="B137">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C137">
-        <v>1.852272302667846</v>
+        <v>2.115060496980425</v>
       </c>
       <c r="D137">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E137">
-        <v>1.656130016820256</v>
+        <v>1.805856529936611</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>43418</v>
+        <v>44890</v>
       </c>
       <c r="B138">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C138">
-        <v>1.471137749280693</v>
+        <v>1.995866057153428</v>
       </c>
       <c r="D138">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E138">
-        <v>0.4244220269781884</v>
+        <v>1.046377579893853</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>43510</v>
+        <v>44981</v>
       </c>
       <c r="B139">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C139">
-        <v>-0.2007416153947061</v>
+        <v>-0.01598485334187716</v>
       </c>
       <c r="D139">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E139">
-        <v>-0.362507813320434</v>
+        <v>0.07860134685897524</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>43600</v>
+        <v>45071</v>
       </c>
       <c r="B140">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C140">
-        <v>0.7836898833048833</v>
+        <v>-1.180988750584033</v>
       </c>
       <c r="D140">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E140">
-        <v>0.8862828026915626</v>
+        <v>-1.733442595222734</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>43691</v>
+        <v>45163</v>
       </c>
       <c r="B141">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C141">
-        <v>0.644969622808067</v>
+        <v>-0.2637851431490312</v>
       </c>
       <c r="D141">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E141">
-        <v>0.5629693656313828</v>
+        <v>-0.1343280350971088</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>43783</v>
+        <v>45254</v>
       </c>
       <c r="B142">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C142">
-        <v>0.508332909595044</v>
+        <v>-0.1168430792840458</v>
       </c>
       <c r="D142">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E142">
-        <v>-0.2757402582850954</v>
+        <v>-0.01476437379130946</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>43875</v>
+        <v>45345</v>
       </c>
       <c r="B143">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C143">
-        <v>0.3392564409533616</v>
+        <v>-0.58220747504375</v>
       </c>
       <c r="D143">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E143">
-        <v>0.4494534653806115</v>
+        <v>-0.5913299442996456</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>43966</v>
+        <v>45436</v>
       </c>
       <c r="B144">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C144">
-        <v>-3.919926155910458</v>
+        <v>-0.3246799661751343</v>
       </c>
       <c r="D144">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E144">
-        <v>-4.568365316363964</v>
+        <v>-0.5695548945734541</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>44068</v>
+        <v>45534</v>
       </c>
       <c r="B145">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C145">
-        <v>-12.93767597048412</v>
+        <v>0.01805671340668891</v>
       </c>
       <c r="D145">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E145">
-        <v>-22.34240884641498</v>
+        <v>0.2886105981460663</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>44159</v>
+        <v>45618</v>
       </c>
       <c r="B146">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C146">
-        <v>-5.494775307949129</v>
+        <v>-0.1775688094211469</v>
       </c>
       <c r="D146">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E146">
-        <v>-0.7166544947129094</v>
+        <v>-0.3126907272057444</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>44251</v>
+        <v>45713</v>
       </c>
       <c r="B147">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C147">
-        <v>13.49012343387297</v>
+        <v>-0.2910688762263414</v>
       </c>
       <c r="D147">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E147">
-        <v>18.91584348163817</v>
+        <v>-0.1907372325685941</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>44341</v>
+        <v>45800</v>
       </c>
       <c r="B148">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C148">
-        <v>-0.833338981495324</v>
+        <v>0.3976998903947093</v>
       </c>
       <c r="D148">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E148">
-        <v>-2.521100573087787</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B149">
-        <v>2021</v>
-      </c>
-      <c r="C149">
-        <v>1.22750877752047</v>
-      </c>
-      <c r="D149">
-        <v>2022</v>
-      </c>
-      <c r="E149">
-        <v>-0.2903843096585534</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2">
-        <v>44525</v>
-      </c>
-      <c r="B150">
-        <v>2021</v>
-      </c>
-      <c r="C150">
-        <v>3.149343082976164</v>
-      </c>
-      <c r="D150">
-        <v>2022</v>
-      </c>
-      <c r="E150">
-        <v>7.598241630053093</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2">
-        <v>44617</v>
-      </c>
-      <c r="B151">
-        <v>2022</v>
-      </c>
-      <c r="C151">
-        <v>2.781712357034771</v>
-      </c>
-      <c r="D151">
-        <v>2023</v>
-      </c>
-      <c r="E151">
-        <v>2.671022661935063</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2">
-        <v>44706</v>
-      </c>
-      <c r="B152">
-        <v>2022</v>
-      </c>
-      <c r="C152">
-        <v>1.252593750045849</v>
-      </c>
-      <c r="D152">
-        <v>2023</v>
-      </c>
-      <c r="E152">
-        <v>-0.2233821207767939</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2">
-        <v>44798</v>
-      </c>
-      <c r="B153">
-        <v>2022</v>
-      </c>
-      <c r="C153">
-        <v>2.115060496980425</v>
-      </c>
-      <c r="D153">
-        <v>2023</v>
-      </c>
-      <c r="E153">
-        <v>1.805856529936611</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2">
-        <v>44890</v>
-      </c>
-      <c r="B154">
-        <v>2022</v>
-      </c>
-      <c r="C154">
-        <v>1.995866057153428</v>
-      </c>
-      <c r="D154">
-        <v>2023</v>
-      </c>
-      <c r="E154">
-        <v>1.046377579893853</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2">
-        <v>44981</v>
-      </c>
-      <c r="B155">
-        <v>2023</v>
-      </c>
-      <c r="C155">
-        <v>-0.01598485334187716</v>
-      </c>
-      <c r="D155">
-        <v>2024</v>
-      </c>
-      <c r="E155">
-        <v>0.07860134685897524</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2">
-        <v>45071</v>
-      </c>
-      <c r="B156">
-        <v>2023</v>
-      </c>
-      <c r="C156">
-        <v>-1.180988750584033</v>
-      </c>
-      <c r="D156">
-        <v>2024</v>
-      </c>
-      <c r="E156">
-        <v>-1.733442595222734</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2">
-        <v>45163</v>
-      </c>
-      <c r="B157">
-        <v>2023</v>
-      </c>
-      <c r="C157">
-        <v>-0.2637851431490312</v>
-      </c>
-      <c r="D157">
-        <v>2024</v>
-      </c>
-      <c r="E157">
-        <v>-0.1343280350971088</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B158">
-        <v>2023</v>
-      </c>
-      <c r="C158">
-        <v>-0.1168430792840458</v>
-      </c>
-      <c r="D158">
-        <v>2024</v>
-      </c>
-      <c r="E158">
-        <v>-0.01476437379130946</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2">
-        <v>45345</v>
-      </c>
-      <c r="B159">
-        <v>2024</v>
-      </c>
-      <c r="C159">
-        <v>-0.58220747504375</v>
-      </c>
-      <c r="D159">
-        <v>2025</v>
-      </c>
-      <c r="E159">
-        <v>-0.5913299442996456</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2">
-        <v>45436</v>
-      </c>
-      <c r="B160">
-        <v>2024</v>
-      </c>
-      <c r="C160">
-        <v>-0.3246799661751343</v>
-      </c>
-      <c r="D160">
-        <v>2025</v>
-      </c>
-      <c r="E160">
-        <v>-0.5695548945734541</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2">
-        <v>45534</v>
-      </c>
-      <c r="B161">
-        <v>2024</v>
-      </c>
-      <c r="C161">
-        <v>0.01805671340668891</v>
-      </c>
-      <c r="D161">
-        <v>2025</v>
-      </c>
-      <c r="E161">
-        <v>0.2886105981460663</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B162">
-        <v>2024</v>
-      </c>
-      <c r="C162">
-        <v>-0.1775688094211469</v>
-      </c>
-      <c r="D162">
-        <v>2025</v>
-      </c>
-      <c r="E162">
-        <v>-0.3126907272057444</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2">
-        <v>45713</v>
-      </c>
-      <c r="B163">
-        <v>2025</v>
-      </c>
-      <c r="C163">
-        <v>-0.2910688762263414</v>
-      </c>
-      <c r="D163">
-        <v>2026</v>
-      </c>
-      <c r="E163">
-        <v>-0.1907372325685941</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2">
-        <v>45800</v>
-      </c>
-      <c r="B164">
-        <v>2025</v>
-      </c>
-      <c r="C164">
-        <v>0.3976998903947093</v>
-      </c>
-      <c r="D164">
-        <v>2026</v>
-      </c>
-      <c r="E164">
         <v>0.4227294918721425</v>
       </c>
     </row>
